--- a/medicine/Autisme/Michael_Turnheim/Michael_Turnheim.xlsx
+++ b/medicine/Autisme/Michael_Turnheim/Michael_Turnheim.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Michael Turnheim (né le 22 octobre 1946 à Vienne, mort le 27 novembre 2009 à Paris) est un psychanalyste et universitaire autrichien, qui a exercé à Paris et à Vienne.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Turnheim a complété une formation psychanalytique avec Jacques Lacan, dont il a traduit le séminaire « Les psychoses »[1]. Il devient membre de l'École de la cause freudienne en 1981, puis est membre d'Aleph, de 1999 à 2007[1]. Il a travaillé à Vienne et à Paris en tant que psychanalyste et que médecin, spécialiste en neurologie et en psychiatrie. Il a donné des conférences sur Freud, Lacan et Derrida à la faculté de médecine de l'université de Vienne où il est privat-dozent à partir de 1992, puis il est nommé professeur d'université en 2009. Turnheim dirigeait une clinique de jour pour les enfants psychotiques et autistes. Il diffuse les écrits cliniques du psychanalyste Herbert Silberer et autopublie ou publie de nombreux titres à propos des questions historiques de la psychanalyse.
-Le titre du livre Dormir avec la raison (en allemand, Mit der Vernunft schlafen) fait référence à un tableau de Goya[2]. Un important travail de renouveau de la psychanalyse est important pour son travail. Il refuse d'établir quelque chose d'absolu et prend toujours une position critique.
-Dans le cas de l'autisme, il travaille sur la violence de la langue, sur les dessins et la thérapie par la peinture[3]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Turnheim a complété une formation psychanalytique avec Jacques Lacan, dont il a traduit le séminaire « Les psychoses ». Il devient membre de l'École de la cause freudienne en 1981, puis est membre d'Aleph, de 1999 à 2007. Il a travaillé à Vienne et à Paris en tant que psychanalyste et que médecin, spécialiste en neurologie et en psychiatrie. Il a donné des conférences sur Freud, Lacan et Derrida à la faculté de médecine de l'université de Vienne où il est privat-dozent à partir de 1992, puis il est nommé professeur d'université en 2009. Turnheim dirigeait une clinique de jour pour les enfants psychotiques et autistes. Il diffuse les écrits cliniques du psychanalyste Herbert Silberer et autopublie ou publie de nombreux titres à propos des questions historiques de la psychanalyse.
+Le titre du livre Dormir avec la raison (en allemand, Mit der Vernunft schlafen) fait référence à un tableau de Goya. Un important travail de renouveau de la psychanalyse est important pour son travail. Il refuse d'établir quelque chose d'absolu et prend toujours une position critique.
+Dans le cas de l'autisme, il travaille sur la violence de la langue, sur les dessins et la thérapie par la peinture
 </t>
         </is>
       </c>
@@ -544,7 +558,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Freud et les autres: essais sur l'histoire de la psychanalyse. Essais psychanalytiques I, Turia + Kant, Vienne 1993.  (ISBN 3-85132-041-7)
 Rencontre et diffusion : Essais psychanalytiques II, Turia + Kant, Vienne 1995.
